--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>8.956647800032</v>
+        <v>7.930018581836221</v>
       </c>
       <c r="R2">
-        <v>80.609830200288</v>
+        <v>71.37016723652599</v>
       </c>
       <c r="S2">
-        <v>0.01716002031457066</v>
+        <v>0.0158785035437926</v>
       </c>
       <c r="T2">
-        <v>0.01716002031457066</v>
+        <v>0.0158785035437926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
-        <v>329.126826109688</v>
+        <v>320.7931288741518</v>
       </c>
       <c r="R3">
-        <v>2962.141434987192</v>
+        <v>2887.138159867366</v>
       </c>
       <c r="S3">
-        <v>0.6305733069120162</v>
+        <v>0.6423332784263247</v>
       </c>
       <c r="T3">
-        <v>0.6305733069120162</v>
+        <v>0.6423332784263249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>1.644876953008</v>
+        <v>2.229943437539555</v>
       </c>
       <c r="R4">
-        <v>14.803892577072</v>
+        <v>20.069490937856</v>
       </c>
       <c r="S4">
-        <v>0.003151415859903025</v>
+        <v>0.004465079672894033</v>
       </c>
       <c r="T4">
-        <v>0.003151415859903025</v>
+        <v>0.004465079672894034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H5">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I5">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J5">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>19.499549423204</v>
+        <v>17.45002147492955</v>
       </c>
       <c r="R5">
-        <v>175.495944808836</v>
+        <v>157.050193274366</v>
       </c>
       <c r="S5">
-        <v>0.03735914057332474</v>
+        <v>0.0349406782556072</v>
       </c>
       <c r="T5">
-        <v>0.03735914057332475</v>
+        <v>0.0349406782556072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H6">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I6">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J6">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.255626982644</v>
+        <v>0.1164172074183333</v>
       </c>
       <c r="R6">
-        <v>2.300642843796</v>
+        <v>1.047754866765</v>
       </c>
       <c r="S6">
-        <v>0.0004897551308322931</v>
+        <v>0.0002331055118564943</v>
       </c>
       <c r="T6">
-        <v>0.0004897551308322931</v>
+        <v>0.0002331055118564944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>2.226142431199111</v>
+        <v>2.022180321839778</v>
       </c>
       <c r="R7">
-        <v>20.035281880792</v>
+        <v>18.199622896558</v>
       </c>
       <c r="S7">
-        <v>0.004265061013381367</v>
+        <v>0.004049069630185606</v>
       </c>
       <c r="T7">
-        <v>0.004265061013381368</v>
+        <v>0.004049069630185607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>81.80328279136424</v>
@@ -948,10 +948,10 @@
         <v>736.2295451222782</v>
       </c>
       <c r="S8">
-        <v>0.1567267158247937</v>
+        <v>0.1637970582656286</v>
       </c>
       <c r="T8">
-        <v>0.1567267158247937</v>
+        <v>0.1637970582656287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.4088282202164445</v>
+        <v>0.5686427707164445</v>
       </c>
       <c r="R9">
-        <v>3.679453981948001</v>
+        <v>5.117784936448</v>
       </c>
       <c r="S9">
-        <v>0.0007832730191823433</v>
+        <v>0.001138609721628466</v>
       </c>
       <c r="T9">
-        <v>0.0007832730191823433</v>
+        <v>0.001138609721628467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>29.057191</v>
       </c>
       <c r="I10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>4.846542515616556</v>
+        <v>4.449811772586445</v>
       </c>
       <c r="R10">
-        <v>43.618882640549</v>
+        <v>40.048305953278</v>
       </c>
       <c r="S10">
-        <v>0.009285479331130267</v>
+        <v>0.008909985679234461</v>
       </c>
       <c r="T10">
-        <v>0.009285479331130267</v>
+        <v>0.008909985679234463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>29.057191</v>
       </c>
       <c r="I11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.06353516240988888</v>
+        <v>0.02968676347166667</v>
       </c>
       <c r="R11">
-        <v>0.571816461689</v>
+        <v>0.267180871245</v>
       </c>
       <c r="S11">
-        <v>0.0001217268672370197</v>
+        <v>5.944265755799049E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001217268672370197</v>
+        <v>5.944265755799051E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H12">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>0.1394568664977778</v>
+        <v>0.1185159547324444</v>
       </c>
       <c r="R12">
-        <v>1.25511179848</v>
+        <v>1.066643592592</v>
       </c>
       <c r="S12">
-        <v>0.0002671850803488874</v>
+        <v>0.0002373078937703236</v>
       </c>
       <c r="T12">
-        <v>0.0002671850803488875</v>
+        <v>0.0002373078937703236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H13">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>5.124573040535556</v>
+        <v>4.794327219763555</v>
       </c>
       <c r="R13">
-        <v>46.12115736482</v>
+        <v>43.148944977872</v>
       </c>
       <c r="S13">
-        <v>0.009818157355565228</v>
+        <v>0.009599818835669051</v>
       </c>
       <c r="T13">
-        <v>0.009818157355565229</v>
+        <v>0.009599818835669053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H14">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.02561107579111111</v>
+        <v>0.03332701843911111</v>
       </c>
       <c r="R14">
-        <v>0.23049968212</v>
+        <v>0.299943165952</v>
       </c>
       <c r="S14">
-        <v>4.906819947211785E-05</v>
+        <v>6.673164443795451E-05</v>
       </c>
       <c r="T14">
-        <v>4.906819947211786E-05</v>
+        <v>6.673164443795452E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H15">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>0.3036120344788889</v>
+        <v>0.2607945913191111</v>
       </c>
       <c r="R15">
-        <v>2.73250831031</v>
+        <v>2.347151321872</v>
       </c>
       <c r="S15">
-        <v>0.0005816895780346804</v>
+        <v>0.0005221964866447487</v>
       </c>
       <c r="T15">
-        <v>0.0005816895780346804</v>
+        <v>0.0005221964866447489</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H16">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.003980165212222221</v>
+        <v>0.001739881986666666</v>
       </c>
       <c r="R16">
-        <v>0.03582148691</v>
+        <v>0.01565893788</v>
       </c>
       <c r="S16">
-        <v>7.62558910676791E-06</v>
+        <v>3.483815580753723E-06</v>
       </c>
       <c r="T16">
-        <v>7.625589106767911E-06</v>
+        <v>3.483815580753724E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H17">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I17">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J17">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N17">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O17">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P17">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q17">
-        <v>1.572234685730667</v>
+        <v>1.215741961629778</v>
       </c>
       <c r="R17">
-        <v>14.150112171576</v>
+        <v>10.941677654668</v>
       </c>
       <c r="S17">
-        <v>0.003012240712012196</v>
+        <v>0.002434314982601952</v>
       </c>
       <c r="T17">
-        <v>0.003012240712012196</v>
+        <v>0.002434314982601952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H18">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I18">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J18">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.337258</v>
       </c>
       <c r="O18">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P18">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q18">
-        <v>57.77436196745934</v>
+        <v>49.18042293975423</v>
       </c>
       <c r="R18">
-        <v>519.969257707134</v>
+        <v>442.623806457788</v>
       </c>
       <c r="S18">
-        <v>0.1106897633084801</v>
+        <v>0.09847537075421126</v>
       </c>
       <c r="T18">
-        <v>0.1106897633084801</v>
+        <v>0.09847537075421127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H19">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I19">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J19">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N19">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O19">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P19">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q19">
-        <v>0.2887388961826667</v>
+        <v>0.3418700449564445</v>
       </c>
       <c r="R19">
-        <v>2.598650065644001</v>
+        <v>3.076830404608</v>
       </c>
       <c r="S19">
-        <v>0.0005531941675861776</v>
+        <v>0.0006845361917298912</v>
       </c>
       <c r="T19">
-        <v>0.0005531941675861776</v>
+        <v>0.0006845361917298912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H20">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I20">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J20">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N20">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O20">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P20">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q20">
-        <v>3.422917663366334</v>
+        <v>2.675242575976445</v>
       </c>
       <c r="R20">
-        <v>30.806258970297</v>
+        <v>24.077183183788</v>
       </c>
       <c r="S20">
-        <v>0.006557959847238738</v>
+        <v>0.005356714903599975</v>
       </c>
       <c r="T20">
-        <v>0.006557959847238738</v>
+        <v>0.005356714903599975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H21">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I21">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J21">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N21">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O21">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P21">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q21">
-        <v>0.04487232474633333</v>
+        <v>0.01784778719666667</v>
       </c>
       <c r="R21">
-        <v>0.403850922717</v>
+        <v>0.16063008477</v>
       </c>
       <c r="S21">
-        <v>8.597078074302987E-05</v>
+        <v>3.573713596336953E-05</v>
       </c>
       <c r="T21">
-        <v>8.597078074302987E-05</v>
+        <v>3.573713596336954E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H22">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N22">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O22">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P22">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q22">
-        <v>0.1100344701084444</v>
+        <v>0.07703282346822221</v>
       </c>
       <c r="R22">
-        <v>0.990310230976</v>
+        <v>0.693295411214</v>
       </c>
       <c r="S22">
-        <v>0.0002108147807662124</v>
+        <v>0.0001542450308036086</v>
       </c>
       <c r="T22">
-        <v>0.0002108147807662125</v>
+        <v>0.0001542450308036086</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H23">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.337258</v>
       </c>
       <c r="O23">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P23">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q23">
-        <v>4.043398458664889</v>
+        <v>3.116209654663778</v>
       </c>
       <c r="R23">
-        <v>36.390586127984</v>
+        <v>28.045886891974</v>
       </c>
       <c r="S23">
-        <v>0.007746737533918136</v>
+        <v>0.006239675926878103</v>
       </c>
       <c r="T23">
-        <v>0.007746737533918138</v>
+        <v>0.006239675926878105</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H24">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N24">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O24">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P24">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q24">
-        <v>0.02020769019377778</v>
+        <v>0.02166184573155555</v>
       </c>
       <c r="R24">
-        <v>0.181869211744</v>
+        <v>0.194956611584</v>
       </c>
       <c r="S24">
-        <v>3.871586579909262E-05</v>
+        <v>4.337413470901968E-05</v>
       </c>
       <c r="T24">
-        <v>3.871586579909263E-05</v>
+        <v>4.337413470901968E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H25">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N25">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O25">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P25">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q25">
-        <v>0.2395564318302222</v>
+        <v>0.1695108794415555</v>
       </c>
       <c r="R25">
-        <v>2.156007886472</v>
+        <v>1.525597914974</v>
       </c>
       <c r="S25">
-        <v>0.0004589656005763661</v>
+        <v>0.0003394164934353655</v>
       </c>
       <c r="T25">
-        <v>0.0004589656005763662</v>
+        <v>0.0003394164934353655</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H26">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N26">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O26">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P26">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q26">
-        <v>0.003140436043555555</v>
+        <v>0.001130885898333333</v>
       </c>
       <c r="R26">
-        <v>0.028263924392</v>
+        <v>0.010177973085</v>
       </c>
       <c r="S26">
-        <v>6.016753980638906E-06</v>
+        <v>2.26440525441404E-06</v>
       </c>
       <c r="T26">
-        <v>6.016753980638909E-06</v>
+        <v>2.26440525441404E-06</v>
       </c>
     </row>
   </sheetData>
